--- a/msff/xls/scscTransactions.xlsx
+++ b/msff/xls/scscTransactions.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\repos\repo1\msff\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01705BE9-6DA2-44B7-9890-5DB58F67B8F2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E97086-2E4B-4CBC-803C-5FC6E9F0BEBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="0" windowWidth="18000" windowHeight="26355"/>
+    <workbookView xWindow="21600" yWindow="13200" windowWidth="13875" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardTransactions240126081829432" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -28,9 +39,6 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>Foreign Currency Amount</t>
-  </si>
-  <si>
     <t>STRIDES TAXI PTE LTD     SINGAPORE    SG</t>
   </si>
   <si>
@@ -263,14 +271,53 @@
   </si>
   <si>
     <t>no claim</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>a=added to Oracle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+  </si>
+  <si>
+    <t>USD 142.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non-SCSC: Ye's </t>
+  </si>
+  <si>
+    <t>non-SCSC: buffet</t>
+  </si>
+  <si>
+    <t>non-SCSC: DDDonki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total = </t>
+  </si>
+  <si>
+    <t>ESTA</t>
+  </si>
+  <si>
+    <t>USD 21</t>
+  </si>
+  <si>
+    <t>non-SCSC: PEK taxi</t>
+  </si>
+  <si>
+    <t>non-SCSC: Grab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -408,7 +455,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,6 +633,48 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -749,9 +838,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1106,22 +1214,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="18" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1129,714 +1238,1255 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45311</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>37.99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45311</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>39.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>37.99</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45311</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>39.75</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45309</v>
       </c>
       <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
       </c>
       <c r="D5">
         <v>20.91</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="E5" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>45309</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="11">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+    </row>
+    <row r="7" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>45309</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6">
-        <v>36.700000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11">
+        <v>146.35</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <v>45309</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
-        <v>146.35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11">
+        <v>8614.91</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
         <v>45309</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8">
-        <v>8614.91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45309</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="14">
         <v>-24.81</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45308</v>
       </c>
       <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
       </c>
       <c r="D10">
         <v>20.84</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45308</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
       </c>
       <c r="D11">
         <v>24.42</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="E11" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>45307</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3">
         <v>25.86</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="E12" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>45307</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="3">
+        <v>27.6</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+    </row>
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D13">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3">
+        <v>29.45</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+    </row>
+    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>45307</v>
       </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14">
-        <v>29.45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>45307</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>64.39</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45306</v>
       </c>
       <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>45305</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>45306</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" s="13">
+        <v>5.5</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>45305</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D17">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="D18" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
         <v>45305</v>
       </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D18">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="C19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="13">
+        <v>14.72</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
         <v>45305</v>
       </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D19">
-        <v>14.72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="C20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="13">
+        <v>19.77</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
         <v>45305</v>
       </c>
-      <c r="B20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D20">
-        <v>19.77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="D21" s="13">
+        <v>34.08</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
         <v>45305</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D21">
-        <v>34.08</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="C22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="13">
+        <v>44.82</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+    </row>
+    <row r="23" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
         <v>45305</v>
       </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D22">
-        <v>44.82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>45305</v>
-      </c>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23">
+      <c r="D23" s="13">
         <v>55.31</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45304</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24">
+        <v>34</v>
+      </c>
+      <c r="D24" s="14">
         <v>8.9600000000000009</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45304</v>
       </c>
       <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="C25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25">
+      <c r="D25" s="14">
         <v>9.01</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45304</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26">
-        <v>13.47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D26" s="14">
+        <v>179.54</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45304</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27">
-        <v>179.54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E27" s="14">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45304</v>
       </c>
       <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
+      <c r="E28" s="14">
+        <v>491.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>45303</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="7">
+        <v>11.42</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+    </row>
+    <row r="30" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>45303</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="7">
+        <v>179.62</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="E28">
-        <v>491.7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>45303</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="C31" t="s">
         <v>44</v>
       </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29">
+      <c r="D31">
         <v>7.45</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>45303</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30">
-        <v>11.42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>45303</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
-      <c r="D31">
-        <v>179.62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45302</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D32">
-        <v>7.45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17.77</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>45302</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="D33">
-        <v>17.77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29.7</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>45302</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D34">
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>45302</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
+        <v>138.05000000000001</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>45301</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="5">
+        <v>7.45</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+    </row>
+    <row r="36" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>45301</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="5">
+        <v>22.81</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+    </row>
+    <row r="37" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>45301</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="5">
+        <v>30.39</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+    </row>
+    <row r="38" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>45301</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" s="5">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+    </row>
+    <row r="39" spans="1:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="15">
+        <v>45301</v>
+      </c>
+      <c r="B39" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D35">
-        <v>138.05000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>45301</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36">
-        <v>22.81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>45301</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37">
-        <v>30.39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>45301</v>
-      </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38">
-        <v>38.369999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>45301</v>
-      </c>
-      <c r="B39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>45300</v>
       </c>
       <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" t="s">
         <v>57</v>
-      </c>
-      <c r="C40" t="s">
-        <v>58</v>
       </c>
       <c r="D40">
         <v>28.38</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>45300</v>
       </c>
       <c r="B41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D41">
         <v>45.82</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="E41" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
         <v>45299</v>
       </c>
-      <c r="B42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="9">
+        <v>10.91</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+    </row>
+    <row r="43" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <v>45299</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D42">
-        <v>10.91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="C43" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+    </row>
+    <row r="44" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
         <v>45299</v>
       </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D43">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="D44" s="9">
+        <v>14.26</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+    </row>
+    <row r="45" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>45299</v>
       </c>
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D44">
-        <v>14.26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>45299</v>
-      </c>
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" t="s">
-        <v>64</v>
-      </c>
-      <c r="D45">
+      <c r="D45" s="9">
         <v>17.82</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45298</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45298</v>
       </c>
       <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
         <v>66</v>
-      </c>
-      <c r="C47" t="s">
-        <v>67</v>
       </c>
       <c r="D47">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>45298</v>
       </c>
       <c r="B48" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" t="s">
         <v>68</v>
-      </c>
-      <c r="C48" t="s">
-        <v>69</v>
       </c>
       <c r="D48">
         <v>7.52</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>45298</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49">
         <v>12.03</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>45298</v>
       </c>
       <c r="B50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" t="s">
         <v>71</v>
-      </c>
-      <c r="C50" t="s">
-        <v>72</v>
       </c>
       <c r="D50">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>45298</v>
       </c>
       <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
         <v>73</v>
-      </c>
-      <c r="C51" t="s">
-        <v>74</v>
       </c>
       <c r="D51">
         <v>15.57</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>45298</v>
       </c>
       <c r="B52" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s">
         <v>75</v>
-      </c>
-      <c r="C52" t="s">
-        <v>76</v>
       </c>
       <c r="D52">
         <v>128.16</v>
       </c>
+      <c r="E52" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53">
+        <v>25.001000000000001</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="D55">
+        <v>199.3</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56">
+        <f>172.3</f>
+        <v>172.3</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57">
+        <v>39.75</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58">
+        <f>31.4+18.94</f>
+        <v>50.34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="D59">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C60" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60">
+        <f>SUM(D3:D59)</f>
+        <v>10781.571000000004</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D52">
-    <sortCondition descending="1" ref="A2:A52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D53">
+    <sortCondition descending="1" ref="A3:A53"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
